--- a/시장분석용_정보/시장분석용_4686031000.xlsx
+++ b/시장분석용_정보/시장분석용_4686031000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="39">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -536,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV42"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,64 +588,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1219</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -705,10 +609,10 @@
         <v>4129023449</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4686031000</v>
@@ -717,7 +621,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>422166</v>
@@ -729,49 +633,49 @@
         <v>13567</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>4.91</v>
+        <v>7.37</v>
       </c>
       <c r="S2">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>81.08</v>
+        <v>36.86</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>47.67</v>
       </c>
       <c r="X2">
-        <v>18.92</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>36.86</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>44.23</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>84.52</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -780,66 +684,18 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>7.37</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>36.86</v>
-      </c>
-      <c r="AM2">
-        <v>47.67</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>15.48</v>
-      </c>
-      <c r="AS2">
-        <v>84.52</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1513</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -851,10 +707,10 @@
         <v>1069201336</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4686031000</v>
@@ -863,7 +719,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>281580</v>
@@ -875,50 +731,50 @@
         <v>13550</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>79.89</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="X3">
-        <v>9.960000000000001</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="AC3">
         <v>17.71</v>
       </c>
-      <c r="Z3">
-        <v>72.31999999999999</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
@@ -928,64 +784,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>17.71</v>
-      </c>
-      <c r="AN3">
-        <v>72.31999999999999</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>82.29000000000001</v>
-      </c>
-      <c r="AS3">
-        <v>17.71</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2753</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -997,10 +805,10 @@
         <v>4129023449</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>4686031000</v>
@@ -1009,7 +817,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>550135</v>
@@ -1021,37 +829,37 @@
         <v>21100</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>20.38</v>
       </c>
       <c r="R4">
-        <v>28.44</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>47.39</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>24.17</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>96.20999999999999</v>
+        <v>75.83</v>
       </c>
       <c r="Y4">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1063,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>79.62</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>20.38</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1074,64 +882,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>20.38</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>3.79</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>75.83</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>79.62</v>
-      </c>
-      <c r="AT4">
-        <v>20.38</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3040</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202002</v>
@@ -1143,10 +903,10 @@
         <v>1069201336</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4686031000</v>
@@ -1155,7 +915,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <v>123341</v>
@@ -1167,29 +927,29 @@
         <v>10550</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>100</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>77.25</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>22.75</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
         <v>0</v>
       </c>
@@ -1197,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>22.75</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>77.25</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1212,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1220,64 +980,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>100</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>100</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4274</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202003</v>
@@ -1289,10 +1001,10 @@
         <v>4129023449</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>4686031000</v>
@@ -1301,7 +1013,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>677419</v>
@@ -1313,19 +1025,19 @@
         <v>21700</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="R6">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1334,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>92.17</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>93.7</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1352,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>98.67</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1364,66 +1076,18 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>62.4</v>
-      </c>
-      <c r="AG6">
-        <v>37.6</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>1.33</v>
-      </c>
-      <c r="AS6">
-        <v>98.67</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5797</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202004</v>
@@ -1435,10 +1099,10 @@
         <v>4129023449</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>4686031000</v>
@@ -1447,7 +1111,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L7">
         <v>1198840</v>
@@ -1459,37 +1123,37 @@
         <v>15087</v>
       </c>
       <c r="O7">
-        <v>85.86</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.14</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="R7">
-        <v>6.85</v>
+        <v>36.15</v>
       </c>
       <c r="S7">
-        <v>32.26</v>
+        <v>28.28</v>
       </c>
       <c r="T7">
-        <v>8.17</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>2.43</v>
+        <v>12.59</v>
       </c>
       <c r="V7">
-        <v>36.15</v>
+        <v>13.26</v>
       </c>
       <c r="W7">
-        <v>14.14</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>50.29</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>49.71</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1498,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>28.28</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>71.72</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1512,64 +1176,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="AH7">
-        <v>36.15</v>
-      </c>
-      <c r="AI7">
-        <v>28.28</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>12.59</v>
-      </c>
-      <c r="AL7">
-        <v>13.26</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>28.28</v>
-      </c>
-      <c r="AS7">
-        <v>71.72</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>6100</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202004</v>
@@ -1581,10 +1197,10 @@
         <v>1069201336</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>4686031000</v>
@@ -1593,7 +1209,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>159861</v>
@@ -1605,7 +1221,7 @@
         <v>15900</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1626,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>94.34</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>94.34</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1647,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1658,64 +1274,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>5.66</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>94.34</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>100</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7341</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202005</v>
@@ -1727,10 +1295,10 @@
         <v>4129023449</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>4686031000</v>
@@ -1739,7 +1307,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L9">
         <v>947143</v>
@@ -1751,37 +1319,37 @@
         <v>13938</v>
       </c>
       <c r="O9">
-        <v>65.12</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>34.88</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>26.21</v>
       </c>
       <c r="R9">
-        <v>14.07</v>
+        <v>4.8</v>
       </c>
       <c r="S9">
-        <v>3.04</v>
+        <v>2.48</v>
       </c>
       <c r="T9">
-        <v>19.59</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>9.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>46.91</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>7.28</v>
+        <v>29.8</v>
       </c>
       <c r="X9">
-        <v>41.11</v>
+        <v>36.7</v>
       </c>
       <c r="Y9">
-        <v>58.89</v>
+        <v>16.56</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1790,78 +1358,30 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>31.18</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>24.67</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>27.59</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>26.21</v>
-      </c>
-      <c r="AH9">
-        <v>4.8</v>
-      </c>
-      <c r="AI9">
-        <v>2.48</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>29.8</v>
-      </c>
-      <c r="AN9">
-        <v>36.7</v>
-      </c>
-      <c r="AO9">
-        <v>16.56</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>31.18</v>
-      </c>
-      <c r="AS9">
-        <v>24.67</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>27.59</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>7652</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202005</v>
@@ -1873,10 +1393,10 @@
         <v>1069201336</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>4686031000</v>
@@ -1885,7 +1405,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>197853</v>
@@ -1897,50 +1417,50 @@
         <v>19550</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>87.72</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>12.28</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>100</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>12.28</v>
-      </c>
-      <c r="S10">
-        <v>87.72</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>12.28</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>87.72</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
@@ -1950,64 +1470,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>87.72</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>12.28</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>100</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>8879</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202006</v>
@@ -2019,10 +1491,10 @@
         <v>4129023449</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>4686031000</v>
@@ -2031,7 +1503,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>161548</v>
@@ -2043,28 +1515,28 @@
         <v>6000</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>21.67</v>
+        <v>33.33</v>
       </c>
       <c r="T11">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>18.33</v>
+        <v>41.67</v>
       </c>
       <c r="V11">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2073,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2082,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2096,64 +1568,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>25</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>33.33</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>41.67</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>40</v>
-      </c>
-      <c r="AS11">
-        <v>60</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>9193</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202006</v>
@@ -2165,10 +1589,10 @@
         <v>1069201336</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>4686031000</v>
@@ -2177,7 +1601,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>87141</v>
@@ -2189,7 +1613,7 @@
         <v>4150</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2198,31 +1622,31 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>66.87</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>24.1</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
+      <c r="W12">
         <v>9.039999999999999</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>53.61</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>46.39</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2231,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2242,64 +1666,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>66.87</v>
-      </c>
-      <c r="AL12">
-        <v>24.1</v>
-      </c>
-      <c r="AM12">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>90.95999999999999</v>
-      </c>
-      <c r="AT12">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>10428</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202007</v>
@@ -2311,10 +1687,10 @@
         <v>4129023449</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>4686031000</v>
@@ -2323,7 +1699,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>1192747</v>
@@ -2335,117 +1711,69 @@
         <v>32400</v>
       </c>
       <c r="O13">
-        <v>77.95</v>
+        <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>52.91</v>
+      </c>
+      <c r="R13">
         <v>22.05</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
-        <v>14.11</v>
+        <v>0</v>
       </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>22.05</v>
       </c>
-      <c r="U13">
-        <v>39.68</v>
-      </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>2.12</v>
       </c>
-      <c r="W13">
-        <v>22.05</v>
-      </c>
       <c r="X13">
-        <v>62.61</v>
+        <v>0.88</v>
       </c>
       <c r="Y13">
-        <v>35.27</v>
+        <v>0</v>
       </c>
       <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>22.93</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>2.12</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>52.91</v>
-      </c>
-      <c r="AH13">
-        <v>22.05</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>22.05</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>2.12</v>
-      </c>
-      <c r="AN13">
-        <v>0.88</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>74.95999999999999</v>
-      </c>
-      <c r="AS13">
-        <v>22.93</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>2.12</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>10748</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202007</v>
@@ -2457,10 +1785,10 @@
         <v>1069201336</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>4686031000</v>
@@ -2469,7 +1797,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>189827</v>
@@ -2481,40 +1809,40 @@
         <v>9275</v>
       </c>
       <c r="O14">
-        <v>31.27</v>
+        <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.32</v>
+      </c>
+      <c r="T14">
         <v>68.73</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>21.29</v>
+        <v>19.95</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>68.73</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>80.05</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>19.95</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2523,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2534,64 +1862,16 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>11.32</v>
-      </c>
-      <c r="AJ14">
-        <v>68.73</v>
-      </c>
-      <c r="AK14">
-        <v>19.95</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>100</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>11979</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202008</v>
@@ -2603,10 +1883,10 @@
         <v>4129023449</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <v>4686031000</v>
@@ -2615,7 +1895,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L15">
         <v>207482</v>
@@ -2627,19 +1907,19 @@
         <v>9675</v>
       </c>
       <c r="O15">
-        <v>60.72</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>39.28</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="R15">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>56.85</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2651,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>39.28</v>
+        <v>26.1</v>
       </c>
       <c r="X15">
-        <v>17.05</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>82.95</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2666,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -2680,64 +1960,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>26.1</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="AS15">
-        <v>26.1</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>13526</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202009</v>
@@ -2749,10 +1981,10 @@
         <v>4129023449</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>4686031000</v>
@@ -2761,7 +1993,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>597696</v>
@@ -2773,117 +2005,69 @@
         <v>10573</v>
       </c>
       <c r="O16">
-        <v>82.8</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>32.07</v>
       </c>
       <c r="R16">
         <v>8.6</v>
       </c>
       <c r="S16">
-        <v>12.04</v>
+        <v>30.09</v>
       </c>
       <c r="T16">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>27.34</v>
+        <v>3.44</v>
       </c>
       <c r="V16">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>39.38</v>
+        <v>25.8</v>
       </c>
       <c r="Y16">
-        <v>38.69</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>21.93</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>44.11</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>30.09</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>32.07</v>
-      </c>
-      <c r="AH16">
-        <v>8.6</v>
-      </c>
-      <c r="AI16">
-        <v>30.09</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>3.44</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>25.8</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>44.11</v>
-      </c>
-      <c r="AS16">
-        <v>30.09</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>25.8</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>13848</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202009</v>
@@ -2895,10 +2079,10 @@
         <v>1069201336</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>4686031000</v>
@@ -2907,7 +2091,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L17">
         <v>58901</v>
@@ -2919,11 +2103,11 @@
         <v>5150</v>
       </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>100</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
         <v>0</v>
       </c>
@@ -2937,19 +2121,19 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2958,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2970,66 +2154,18 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>100</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>100</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>15071</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202010</v>
@@ -3041,10 +2177,10 @@
         <v>4129023449</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>4686031000</v>
@@ -3053,7 +2189,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>435170</v>
@@ -3065,16 +2201,16 @@
         <v>25333</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R18">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3083,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="V18">
-        <v>97.37</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>92.11</v>
       </c>
       <c r="X18">
-        <v>97.37</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3104,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>7.89</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>92.11</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -3118,64 +2254,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>2.63</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>5.26</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>92.11</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>7.89</v>
-      </c>
-      <c r="AS18">
-        <v>92.11</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>16622</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202011</v>
@@ -3187,10 +2275,10 @@
         <v>4129023449</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>4686031000</v>
@@ -3199,7 +2287,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>400847</v>
@@ -3211,37 +2299,37 @@
         <v>18875</v>
       </c>
       <c r="O19">
-        <v>97.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>33.77</v>
       </c>
       <c r="R19">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>66.23</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
-        <v>29.14</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>4.64</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>95.36</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3250,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3264,64 +2352,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>33.77</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>66.23</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>100</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>16944</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202011</v>
@@ -3333,10 +2373,10 @@
         <v>1069201336</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>4686031000</v>
@@ -3345,7 +2385,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>180271</v>
@@ -3357,50 +2397,50 @@
         <v>17400</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="AC20">
         <v>13.79</v>
       </c>
-      <c r="S20">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>100</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
       <c r="AD20">
         <v>0</v>
       </c>
@@ -3410,64 +2450,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>13.79</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="AS20">
-        <v>13.79</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>18166</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202012</v>
@@ -3479,10 +2471,10 @@
         <v>4129023449</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>4686031000</v>
@@ -3491,7 +2483,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L21">
         <v>287410</v>
@@ -3503,37 +2495,37 @@
         <v>14000</v>
       </c>
       <c r="O21">
-        <v>96.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>89.29000000000001</v>
       </c>
-      <c r="S21">
-        <v>3.57</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>3.57</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>3.57</v>
-      </c>
-      <c r="X21">
-        <v>7.14</v>
-      </c>
       <c r="Y21">
-        <v>92.86</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3542,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3556,64 +2548,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>10.71</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>89.29000000000001</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>10.71</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>89.29000000000001</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>19698</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202101</v>
@@ -3625,10 +2569,10 @@
         <v>4129023449</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>4686031000</v>
@@ -3637,7 +2581,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>894877</v>
@@ -3649,37 +2593,37 @@
         <v>24143</v>
       </c>
       <c r="O22">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="R22">
-        <v>1.18</v>
+        <v>63.31</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>29.59</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>33.73</v>
-      </c>
-      <c r="W22">
-        <v>35.5</v>
-      </c>
-      <c r="X22">
-        <v>36.69</v>
-      </c>
       <c r="Y22">
-        <v>63.31</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3688,78 +2632,30 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>62.13</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>29.59</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>4.14</v>
-      </c>
-      <c r="AH22">
-        <v>63.31</v>
-      </c>
-      <c r="AI22">
-        <v>2.96</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>29.59</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AS22">
-        <v>62.13</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>29.59</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>20029</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202101</v>
@@ -3771,10 +2667,10 @@
         <v>1069201336</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>4686031000</v>
@@ -3783,7 +2679,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>166888</v>
@@ -3795,37 +2691,37 @@
         <v>6450</v>
       </c>
       <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>100</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>6.59</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>23.26</v>
-      </c>
       <c r="V23">
-        <v>70.16</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>23.26</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>76.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3837,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -3848,64 +2744,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>100</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>100</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>21230</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202102</v>
@@ -3917,10 +2765,10 @@
         <v>4129023449</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>4686031000</v>
@@ -3929,7 +2777,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>444247</v>
@@ -3941,19 +2789,19 @@
         <v>16800</v>
       </c>
       <c r="O24">
-        <v>38.1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>61.9</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="R24">
-        <v>26.19</v>
+        <v>4.76</v>
       </c>
       <c r="S24">
-        <v>11.9</v>
+        <v>7.14</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3965,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>61.9</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>14.29</v>
+        <v>59.52</v>
       </c>
       <c r="Y24">
-        <v>85.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3980,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -3994,64 +2842,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>28.57</v>
-      </c>
-      <c r="AH24">
-        <v>4.76</v>
-      </c>
-      <c r="AI24">
-        <v>7.14</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>59.52</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>33.33</v>
-      </c>
-      <c r="AS24">
-        <v>66.67</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>21567</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202102</v>
@@ -4063,10 +2863,10 @@
         <v>1069201336</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>4686031000</v>
@@ -4075,7 +2875,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L25">
         <v>521823</v>
@@ -4087,37 +2887,37 @@
         <v>50850</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>100</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>98.33</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4135,69 +2935,21 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>100</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>100</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>22767</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202103</v>
@@ -4209,10 +2961,10 @@
         <v>4129023449</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>4686031000</v>
@@ -4221,7 +2973,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>327004</v>
@@ -4233,16 +2985,16 @@
         <v>28500</v>
       </c>
       <c r="O26">
-        <v>12.28</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>87.72</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>12.28</v>
+        <v>100</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -4257,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>87.72</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>87.72</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>12.28</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4275,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -4286,64 +3038,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>100</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>100</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>24321</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202104</v>
@@ -4355,10 +3059,10 @@
         <v>4129023449</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I27">
         <v>4686031000</v>
@@ -4367,7 +3071,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L27">
         <v>1128665</v>
@@ -4379,37 +3083,37 @@
         <v>29160</v>
       </c>
       <c r="O27">
-        <v>97.05</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>54.87</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>20.58</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>20.58</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>2.95</v>
+        <v>95.81</v>
       </c>
       <c r="X27">
-        <v>24.55</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>75.45</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -4418,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>95.81</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4432,64 +3136,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>4.19</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>95.81</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>4.19</v>
-      </c>
-      <c r="AS27">
-        <v>95.81</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>25885</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202105</v>
@@ -4501,10 +3157,10 @@
         <v>4129023449</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>4686031000</v>
@@ -4513,7 +3169,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>156425</v>
@@ -4525,117 +3181,69 @@
         <v>4371</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>48.37</v>
       </c>
       <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>51.63</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>41.83</v>
+      </c>
+      <c r="AC28">
         <v>6.54</v>
       </c>
-      <c r="U28">
+      <c r="AD28">
+        <v>32.68</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>18.95</v>
       </c>
-      <c r="V28">
-        <v>22.88</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>100</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>48.37</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>51.63</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>41.83</v>
-      </c>
-      <c r="AS28">
-        <v>6.54</v>
-      </c>
-      <c r="AT28">
-        <v>32.68</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>18.95</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>27451</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202106</v>
@@ -4647,10 +3255,10 @@
         <v>4129023449</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I29">
         <v>4686031000</v>
@@ -4659,7 +3267,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L29">
         <v>384417</v>
@@ -4671,117 +3279,69 @@
         <v>3317</v>
       </c>
       <c r="O29">
-        <v>95.28</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>4.72</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="R29">
-        <v>21.49</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>37.48</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>23.2</v>
+        <v>4.59</v>
       </c>
       <c r="U29">
-        <v>2.62</v>
+        <v>6.55</v>
       </c>
       <c r="V29">
-        <v>10.48</v>
+        <v>49.8</v>
       </c>
       <c r="W29">
-        <v>4.72</v>
+        <v>34.47</v>
       </c>
       <c r="X29">
-        <v>48.1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>42.86</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>9.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>15.73</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>34.47</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>18.22</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>4.59</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>4.59</v>
-      </c>
-      <c r="AK29">
-        <v>6.55</v>
-      </c>
-      <c r="AL29">
-        <v>49.8</v>
-      </c>
-      <c r="AM29">
-        <v>34.47</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>15.73</v>
-      </c>
-      <c r="AS29">
-        <v>34.47</v>
-      </c>
-      <c r="AT29">
-        <v>18.22</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
         <v>31.59</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>29009</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202107</v>
@@ -4793,10 +3353,10 @@
         <v>4129023449</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I30">
         <v>4686031000</v>
@@ -4805,7 +3365,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>326476</v>
@@ -4817,7 +3377,7 @@
         <v>5845</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -4826,28 +3386,28 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>12.44</v>
+        <v>22.55</v>
       </c>
       <c r="S30">
-        <v>40.9</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>21.77</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>12.13</v>
+        <v>33.59</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>6.84</v>
       </c>
       <c r="X30">
-        <v>80.40000000000001</v>
+        <v>37.01</v>
       </c>
       <c r="Y30">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -4856,78 +3416,30 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>6.84</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>49.77</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>22.55</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>33.59</v>
-      </c>
-      <c r="AM30">
-        <v>6.84</v>
-      </c>
-      <c r="AN30">
-        <v>37.01</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>22.55</v>
-      </c>
-      <c r="AS30">
-        <v>6.84</v>
-      </c>
-      <c r="AT30">
-        <v>49.77</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
         <v>20.84</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>29375</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202107</v>
@@ -4939,10 +3451,10 @@
         <v>1069201336</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>4686031000</v>
@@ -4951,7 +3463,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <v>419511</v>
@@ -4963,16 +3475,16 @@
         <v>27833</v>
       </c>
       <c r="O31">
-        <v>64.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>35.93</v>
+        <v>59.88</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>59.88</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4984,96 +3496,48 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>4.19</v>
+        <v>0</v>
       </c>
       <c r="W31">
         <v>35.93</v>
       </c>
       <c r="X31">
+        <v>4.19</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>4.19</v>
+      </c>
+      <c r="AC31">
         <v>59.88</v>
       </c>
-      <c r="Y31">
-        <v>40.12</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
       <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>35.93</v>
       </c>
       <c r="AF31">
-        <v>59.88</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>35.93</v>
-      </c>
-      <c r="AN31">
-        <v>4.19</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>4.19</v>
-      </c>
-      <c r="AS31">
-        <v>59.88</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>35.93</v>
-      </c>
-      <c r="AV31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>30583</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202108</v>
@@ -5085,10 +3549,10 @@
         <v>4129023449</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>4686031000</v>
@@ -5097,7 +3561,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>1619632</v>
@@ -5109,117 +3573,69 @@
         <v>20320</v>
       </c>
       <c r="O32">
-        <v>90.16</v>
+        <v>0</v>
       </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>22.97</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1.35</v>
+      </c>
+      <c r="V32">
+        <v>33.04</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>42.65</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1.35</v>
+      </c>
+      <c r="AC32">
+        <v>59.06</v>
+      </c>
+      <c r="AD32">
+        <v>22.97</v>
+      </c>
+      <c r="AE32">
         <v>9.84</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>34.06</v>
-      </c>
-      <c r="S32">
-        <v>27.59</v>
-      </c>
-      <c r="T32">
-        <v>26.84</v>
-      </c>
-      <c r="U32">
-        <v>0.59</v>
-      </c>
-      <c r="V32">
-        <v>1.08</v>
-      </c>
-      <c r="W32">
-        <v>9.84</v>
-      </c>
-      <c r="X32">
-        <v>52.07</v>
-      </c>
-      <c r="Y32">
-        <v>45.93</v>
-      </c>
-      <c r="Z32">
-        <v>2</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
       <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>22.97</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>1.35</v>
-      </c>
-      <c r="AL32">
-        <v>33.04</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>42.65</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>1.35</v>
-      </c>
-      <c r="AS32">
-        <v>59.06</v>
-      </c>
-      <c r="AT32">
-        <v>22.97</v>
-      </c>
-      <c r="AU32">
-        <v>9.84</v>
-      </c>
-      <c r="AV32">
         <v>6.79</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>30951</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202108</v>
@@ -5231,10 +3647,10 @@
         <v>1069201336</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>4686031000</v>
@@ -5243,7 +3659,7 @@
         <v>47.27272727272727</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L33">
         <v>500886</v>
@@ -5255,16 +3671,16 @@
         <v>50000</v>
       </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>50</v>
       </c>
-      <c r="P33">
-        <v>50</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
       <c r="R33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -5273,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -5285,19 +3701,19 @@
         <v>50</v>
       </c>
       <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
         <v>50</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
       <c r="AC33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5308,64 +3724,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-      <c r="AG33">
-        <v>50</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>50</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>50</v>
-      </c>
-      <c r="AS33">
-        <v>50</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>32148</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202109</v>
@@ -5377,10 +3745,10 @@
         <v>4129023449</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>4686031000</v>
@@ -5389,7 +3757,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>719867</v>
@@ -5401,117 +3769,69 @@
         <v>13610</v>
       </c>
       <c r="O34">
-        <v>94.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="R34">
-        <v>37.99</v>
+        <v>22.04</v>
       </c>
       <c r="S34">
-        <v>24.69</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>24.69</v>
+        <v>29.39</v>
       </c>
       <c r="V34">
-        <v>7.35</v>
+        <v>19.18</v>
       </c>
       <c r="W34">
-        <v>2.65</v>
+        <v>22.04</v>
       </c>
       <c r="X34">
-        <v>39.97</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>28.07</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>31.96</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>29.39</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>29.39</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>22.04</v>
       </c>
       <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>7.35</v>
-      </c>
-      <c r="AH34">
-        <v>22.04</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>29.39</v>
-      </c>
-      <c r="AL34">
-        <v>19.18</v>
-      </c>
-      <c r="AM34">
-        <v>22.04</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>29.39</v>
-      </c>
-      <c r="AS34">
-        <v>29.39</v>
-      </c>
-      <c r="AT34">
-        <v>8.6</v>
-      </c>
-      <c r="AU34">
-        <v>22.04</v>
-      </c>
-      <c r="AV34">
         <v>10.58</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>33715</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202110</v>
@@ -5523,10 +3843,10 @@
         <v>4129023449</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I35">
         <v>4686031000</v>
@@ -5535,7 +3855,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>1162631</v>
@@ -5547,117 +3867,69 @@
         <v>13329</v>
       </c>
       <c r="O35">
-        <v>76.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>23.65</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="R35">
-        <v>2.65</v>
+        <v>0.66</v>
       </c>
       <c r="S35">
-        <v>20.79</v>
+        <v>6.62</v>
       </c>
       <c r="T35">
-        <v>25.24</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>23.83</v>
+        <v>46.38</v>
       </c>
       <c r="W35">
-        <v>23.65</v>
+        <v>22.07</v>
       </c>
       <c r="X35">
-        <v>50.35</v>
+        <v>17.65</v>
       </c>
       <c r="Y35">
-        <v>43.03</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>19.86</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>11.69</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>58.91</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>6.62</v>
-      </c>
-      <c r="AH35">
-        <v>0.66</v>
-      </c>
-      <c r="AI35">
-        <v>6.62</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>46.38</v>
-      </c>
-      <c r="AM35">
-        <v>22.07</v>
-      </c>
-      <c r="AN35">
-        <v>17.65</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>19.86</v>
-      </c>
-      <c r="AS35">
-        <v>11.69</v>
-      </c>
-      <c r="AT35">
-        <v>58.91</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
         <v>9.529999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>35282</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202111</v>
@@ -5669,10 +3941,10 @@
         <v>4129023449</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>4686031000</v>
@@ -5681,7 +3953,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>514164</v>
@@ -5693,37 +3965,37 @@
         <v>7477</v>
       </c>
       <c r="O36">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>15.43</v>
       </c>
       <c r="R36">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>61.52</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>25.51</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>33.13</v>
       </c>
       <c r="W36">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>40.33</v>
+        <v>51.44</v>
       </c>
       <c r="Y36">
-        <v>59.67</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -5735,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -5744,66 +4016,18 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>15.43</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>33.13</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>51.44</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>83.33</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
         <v>16.67</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>36866</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202112</v>
@@ -5815,10 +4039,10 @@
         <v>4129023449</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I37">
         <v>4686031000</v>
@@ -5827,7 +4051,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L37">
         <v>617940</v>
@@ -5839,7 +4063,7 @@
         <v>10873</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -5848,40 +4072,40 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>4.85</v>
+        <v>41.81</v>
       </c>
       <c r="S37">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>84.87</v>
+        <v>10.12</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="X37">
-        <v>14.3</v>
+        <v>45.15</v>
       </c>
       <c r="Y37">
-        <v>79.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>6.27</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>75.25</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>19.23</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -5890,66 +4114,18 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>41.81</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>10.12</v>
-      </c>
-      <c r="AM37">
-        <v>2.93</v>
-      </c>
-      <c r="AN37">
-        <v>45.15</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>75.25</v>
-      </c>
-      <c r="AS37">
-        <v>19.23</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
         <v>5.52</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>38419</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202201</v>
@@ -5961,10 +4137,10 @@
         <v>4129023449</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>4686031000</v>
@@ -5973,7 +4149,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>777190</v>
@@ -5985,40 +4161,40 @@
         <v>8482</v>
       </c>
       <c r="O38">
-        <v>50.21</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>13.87</v>
       </c>
       <c r="R38">
-        <v>34.95</v>
+        <v>10.4</v>
       </c>
       <c r="S38">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>7.35</v>
+        <v>5.27</v>
       </c>
       <c r="W38">
-        <v>49.79</v>
+        <v>68.38</v>
       </c>
       <c r="X38">
-        <v>25.59</v>
+        <v>2.08</v>
       </c>
       <c r="Y38">
-        <v>68.72</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>5.69</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -6027,75 +4203,27 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>35.23</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>50.62</v>
       </c>
       <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>13.87</v>
-      </c>
-      <c r="AH38">
-        <v>10.4</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>5.27</v>
-      </c>
-      <c r="AM38">
-        <v>68.38</v>
-      </c>
-      <c r="AN38">
-        <v>2.08</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>35.23</v>
-      </c>
-      <c r="AT38">
-        <v>1.04</v>
-      </c>
-      <c r="AU38">
-        <v>50.62</v>
-      </c>
-      <c r="AV38">
         <v>13.11</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>39971</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202202</v>
@@ -6107,10 +4235,10 @@
         <v>4129023449</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I39">
         <v>4686031000</v>
@@ -6119,7 +4247,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L39">
         <v>330999</v>
@@ -6131,37 +4259,37 @@
         <v>4854</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R39">
-        <v>40.25</v>
+        <v>6.34</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>21.08</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>30.11</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>8.56</v>
+        <v>23.77</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="X39">
-        <v>69.89</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>30.11</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -6170,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>34.07</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -6182,66 +4310,18 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>2.38</v>
-      </c>
-      <c r="AH39">
-        <v>6.34</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>23.77</v>
-      </c>
-      <c r="AM39">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>6.34</v>
-      </c>
-      <c r="AS39">
-        <v>34.07</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
         <v>59.59</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>41518</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>202203</v>
@@ -6253,10 +4333,10 @@
         <v>4129023449</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>4686031000</v>
@@ -6265,7 +4345,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>559180</v>
@@ -6277,117 +4357,69 @@
         <v>9200</v>
       </c>
       <c r="O40">
-        <v>96.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>10.69</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>28.8</v>
+        <v>4.53</v>
       </c>
       <c r="T40">
-        <v>34.24</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>4.89</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>18.12</v>
+        <v>4.53</v>
       </c>
       <c r="W40">
-        <v>3.26</v>
+        <v>28.26</v>
       </c>
       <c r="X40">
+        <v>62.68</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>67.20999999999999</v>
+      </c>
+      <c r="AC40">
+        <v>4.53</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>28.26</v>
       </c>
-      <c r="Y40">
-        <v>58.15</v>
-      </c>
-      <c r="Z40">
-        <v>13.59</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>4.53</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>4.53</v>
-      </c>
-      <c r="AM40">
-        <v>28.26</v>
-      </c>
-      <c r="AN40">
-        <v>62.68</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="AS40">
-        <v>4.53</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>28.26</v>
-      </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>43082</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>202204</v>
@@ -6399,10 +4431,10 @@
         <v>4129023449</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I41">
         <v>4686031000</v>
@@ -6411,7 +4443,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L41">
         <v>1056231</v>
@@ -6423,37 +4455,37 @@
         <v>15577</v>
       </c>
       <c r="O41">
-        <v>86.37</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>13.63</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>7.41</v>
       </c>
       <c r="R41">
-        <v>24.69</v>
+        <v>37.09</v>
       </c>
       <c r="S41">
-        <v>48.2</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>5.14</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>5.83</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>2.52</v>
+        <v>9.09</v>
       </c>
       <c r="W41">
-        <v>13.63</v>
+        <v>16.79</v>
       </c>
       <c r="X41">
-        <v>62.96</v>
+        <v>29.63</v>
       </c>
       <c r="Y41">
-        <v>37.04</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -6462,78 +4494,30 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>29.63</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>46.47</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>7.41</v>
-      </c>
-      <c r="AH41">
-        <v>37.09</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>9.09</v>
-      </c>
-      <c r="AM41">
         <v>16.79</v>
       </c>
-      <c r="AN41">
-        <v>29.63</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>29.63</v>
-      </c>
-      <c r="AS41">
-        <v>46.47</v>
-      </c>
-      <c r="AT41">
-        <v>4.44</v>
-      </c>
-      <c r="AU41">
-        <v>2.67</v>
-      </c>
-      <c r="AV41">
-        <v>16.79</v>
-      </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>44651</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>202205</v>
@@ -6545,10 +4529,10 @@
         <v>4129023449</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>4686031000</v>
@@ -6557,7 +4541,7 @@
         <v>69.98181818181818</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L42">
         <v>714763</v>
@@ -6569,37 +4553,37 @@
         <v>19971</v>
       </c>
       <c r="O42">
-        <v>85.69</v>
+        <v>0</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <v>14.31</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
         <v>21.46</v>
       </c>
-      <c r="S42">
-        <v>21.46</v>
-      </c>
-      <c r="T42">
-        <v>1.29</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
       <c r="V42">
-        <v>41.49</v>
+        <v>5.72</v>
       </c>
       <c r="W42">
+        <v>44.21</v>
+      </c>
+      <c r="X42">
         <v>14.31</v>
       </c>
-      <c r="X42">
-        <v>64.23</v>
-      </c>
       <c r="Y42">
-        <v>35.77</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -6611,63 +4595,15 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>50.07</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="AE42">
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>14.31</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>21.46</v>
-      </c>
-      <c r="AL42">
-        <v>5.72</v>
-      </c>
-      <c r="AM42">
-        <v>44.21</v>
-      </c>
-      <c r="AN42">
-        <v>14.31</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>50.07</v>
-      </c>
-      <c r="AT42">
-        <v>5.72</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
         <v>44.21</v>
       </c>
     </row>
